--- a/Technology/Software/Check Point Software.xlsx
+++ b/Technology/Software/Check Point Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82763683-5ED4-3443-B6E1-9D17408A36BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082DF2E0-B8ED-3440-BD69-C249C043F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,12 +1308,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1334,12 +1328,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1495,12 +1483,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,6 +1493,9 @@
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,6 +1513,21 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1558,13 +1558,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -1574,29 +1576,31 @@
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9530000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1723,12 +1727,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>138.63999999999999</v>
-    <v>111.58</v>
-    <v>0.64170000000000005</v>
-    <v>-1.89</v>
-    <v>-1.3755999999999999E-2</v>
-    <v>1.64</v>
-    <v>1.2102999999999999E-2</v>
+    <v>117.18</v>
+    <v>0.63949999999999996</v>
+    <v>-1.1200000000000001</v>
+    <v>-8.3829999999999998E-3</v>
     <v>USD</v>
     <v>Check Point Software Technologies Ltd. (Check point) develops, markets and supports a range of products and services for information technology (IT) security. The Company's products and services are sold to enterprises, service providers, small and medium sized businesses and consumers. It offers enterprises a platform to deploy independent, modular and interoperable security applications (Software Blades), such as firewall, virtual private network (VPN), intrusion prevention system (IPS), Application Control, Anti-Bot, antivirus, data loss prevention (DLP), policy management, event analysis or multi-domain management. The Company offers Software Blades grouped into functional packages to address specific security issues. It has product offerings under these packages, which include Next Generation Firewall, Next Generation Threat Prevention, Next Generation Secure Web Gateway and Next Generation Data Protection.</v>
     <v>6026</v>
@@ -1736,25 +1738,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5 Shlomo Kaplan Street, TEL AVIV-YAFO, 67897 IL</v>
-    <v>138.63999999999999</v>
+    <v>134.01</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.984961573435</v>
+    <v>45225.933781666405</v>
     <v>0</v>
-    <v>135.435</v>
-    <v>16073770000</v>
+    <v>132.46</v>
+    <v>15499338623</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
-    <v>138.02000000000001</v>
-    <v>19.559699999999999</v>
-    <v>137.38999999999999</v>
-    <v>135.5</v>
-    <v>137.13999999999999</v>
+    <v>133.32</v>
+    <v>19.123799999999999</v>
+    <v>133.6</v>
+    <v>132.47999999999999</v>
     <v>116993800</v>
     <v>CHKP</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD. (XNAS:CHKP)</v>
-    <v>864700</v>
-    <v>859992</v>
+    <v>977940</v>
+    <v>862553</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1786,8 +1787,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1808,7 +1807,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1825,7 +1823,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1836,16 +1834,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1911,19 +1906,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1968,9 +1957,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1978,9 +1964,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2364,20 +2347,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY199"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2436,7 +2419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
@@ -2577,7 +2560,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2636,7 +2619,7 @@
         <v>588700000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2695,7 +2678,7 @@
         <v>65900000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2754,7 +2737,7 @@
         <v>65900000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
@@ -2813,7 +2796,7 @@
         <v>522800000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>58</v>
       </c>
@@ -2872,7 +2855,7 @@
         <v>88.81</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2931,7 +2914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2990,7 +2973,7 @@
         <v>301400000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3137,7 +3120,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3284,7 +3267,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3343,7 +3326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
@@ -3402,7 +3385,7 @@
         <v>221400000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>59</v>
       </c>
@@ -3543,7 +3526,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3602,7 +3585,7 @@
         <v>-21300000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3661,7 +3644,7 @@
         <v>-21300000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3720,7 +3703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3779,7 +3762,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3838,7 +3821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3897,7 +3880,7 @@
         <v>242700000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3956,7 +3939,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -4015,7 +3998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4074,7 +4057,7 @@
         <v>202000000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -4133,7 +4116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4192,7 +4175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -4251,7 +4234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -4310,7 +4293,7 @@
         <v>202000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4369,7 +4352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>44</v>
       </c>
@@ -4428,7 +4411,7 @@
         <v>202000000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>60</v>
       </c>
@@ -4646,7 +4629,7 @@
         <v>5.8749646193037082E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -4705,7 +4688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4764,7 +4747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -4823,7 +4806,7 @@
         <v>202000000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -4882,7 +4865,7 @@
         <v>118000000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -4941,7 +4924,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -5000,7 +4983,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -5059,7 +5042,7 @@
         <v>119200000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -5118,7 +5101,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -5177,7 +5160,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -5236,7 +5219,7 @@
         <v>229600000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -5295,7 +5278,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -5354,7 +5337,7 @@
         <v>221400000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -5413,7 +5396,7 @@
         <v>221400000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -5472,7 +5455,7 @@
         <v>97693</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -5531,7 +5514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -5590,7 +5573,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -5649,7 +5632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -5708,7 +5691,7 @@
         <v>2053900000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -5767,7 +5750,7 @@
         <v>1585400000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
@@ -5826,7 +5809,7 @@
         <v>286000000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -5885,7 +5868,7 @@
         <v>1299400000</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -5944,7 +5927,7 @@
         <v>413400000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>69</v>
       </c>
@@ -6003,7 +5986,7 @@
         <v>413400000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
@@ -6062,7 +6045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
@@ -6121,7 +6104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -6180,7 +6163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -6239,7 +6222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -6298,7 +6281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -6357,7 +6340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
@@ -6416,7 +6399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -6475,7 +6458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
@@ -6534,7 +6517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -6593,7 +6576,7 @@
         <v>55100000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -6652,7 +6635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -6711,7 +6694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>82</v>
       </c>
@@ -6770,7 +6753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>83</v>
       </c>
@@ -6829,7 +6812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -6888,7 +6871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
@@ -6947,7 +6930,7 @@
         <v>3437400000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
@@ -7006,7 +6989,7 @@
         <v>78400000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
@@ -7065,7 +7048,7 @@
         <v>78400000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
@@ -7124,7 +7107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>89</v>
       </c>
@@ -7183,7 +7166,7 @@
         <v>1930100000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -7242,7 +7225,7 @@
         <v>1930100000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>91</v>
       </c>
@@ -7301,7 +7284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7360,7 +7343,7 @@
         <v>1428900000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -7419,7 +7402,7 @@
         <v>1289300000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -7478,7 +7461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -7537,7 +7520,7 @@
         <v>1289300000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -7596,7 +7579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>97</v>
       </c>
@@ -7655,7 +7638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>98</v>
       </c>
@@ -7714,7 +7697,7 @@
         <v>139600000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>99</v>
       </c>
@@ -7773,7 +7756,7 @@
         <v>5491300000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -7832,7 +7815,7 @@
         <v>453700000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>101</v>
       </c>
@@ -7891,7 +7874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>102</v>
       </c>
@@ -7950,7 +7933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>103</v>
       </c>
@@ -8009,7 +7992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>104</v>
       </c>
@@ -8068,7 +8051,7 @@
         <v>453700000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>105</v>
       </c>
@@ -8127,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>106</v>
       </c>
@@ -8186,7 +8169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>107</v>
       </c>
@@ -8245,7 +8228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>108</v>
       </c>
@@ -8304,7 +8287,7 @@
         <v>1307200000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>109</v>
       </c>
@@ -8363,7 +8346,7 @@
         <v>1307200000</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -8422,7 +8405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>111</v>
       </c>
@@ -8481,7 +8464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>112</v>
       </c>
@@ -8540,7 +8523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>113</v>
       </c>
@@ -8599,7 +8582,7 @@
         <v>1760900000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>114</v>
       </c>
@@ -8658,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
@@ -8717,7 +8700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>116</v>
       </c>
@@ -8776,7 +8759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>117</v>
       </c>
@@ -8835,7 +8818,7 @@
         <v>904000000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>118</v>
       </c>
@@ -8894,7 +8877,7 @@
         <v>467100000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>119</v>
       </c>
@@ -8953,7 +8936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -9012,7 +8995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -9071,7 +9054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -9130,7 +9113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>120</v>
       </c>
@@ -9189,7 +9172,7 @@
         <v>436900000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -9248,7 +9231,7 @@
         <v>904000000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -9307,7 +9290,7 @@
         <v>2664900000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
@@ -9366,7 +9349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
@@ -9425,7 +9408,7 @@
         <v>2622400000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -9484,7 +9467,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -9543,7 +9526,7 @@
         <v>2621600000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -9602,7 +9585,7 @@
         <v>12418800000</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -9661,7 +9644,7 @@
         <v>12713900000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -9720,7 +9703,7 @@
         <v>-91100000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>130</v>
       </c>
@@ -9779,7 +9762,7 @@
         <v>2826400000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -9838,7 +9821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>132</v>
       </c>
@@ -9897,7 +9880,7 @@
         <v>2826400000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>133</v>
       </c>
@@ -9956,7 +9939,7 @@
         <v>5491300000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>134</v>
       </c>
@@ -10097,7 +10080,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -10156,7 +10139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -10215,7 +10198,7 @@
         <v>-286000000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -10274,7 +10257,7 @@
         <v>-10.119999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -10333,7 +10316,7 @@
         <v>36.58</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -10392,7 +10375,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -10451,7 +10434,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -10510,7 +10493,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -10569,7 +10552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>142</v>
       </c>
@@ -10628,7 +10611,7 @@
         <v>202000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>143</v>
       </c>
@@ -10687,7 +10670,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>144</v>
       </c>
@@ -10746,7 +10729,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="25" t="s">
         <v>145</v>
       </c>
@@ -10893,7 +10876,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -10952,7 +10935,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -11011,7 +10994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -11070,7 +11053,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -11129,7 +11112,7 @@
         <v>-62100000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -11188,7 +11171,7 @@
         <v>-59900000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -11247,7 +11230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
@@ -11306,7 +11289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -11365,7 +11348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
@@ -11424,7 +11407,7 @@
         <v>-2200000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -11483,7 +11466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
@@ -11542,7 +11525,7 @@
         <v>191000000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
@@ -11601,7 +11584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -11660,7 +11643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
@@ -11719,7 +11702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -11778,7 +11761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -11837,7 +11820,7 @@
         <v>-3600000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -11896,7 +11879,7 @@
         <v>-3600000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -11955,7 +11938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -12014,7 +11997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
@@ -12073,7 +12056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -12132,7 +12115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -12191,7 +12174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
@@ -12250,7 +12233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
@@ -12309,7 +12292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -12368,7 +12351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
@@ -12427,7 +12410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>155</v>
       </c>
@@ -12486,7 +12469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
@@ -12545,7 +12528,7 @@
         <v>-3600000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
@@ -12604,7 +12587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
@@ -12663,7 +12646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
@@ -12722,7 +12705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
@@ -12781,7 +12764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
@@ -12840,7 +12823,7 @@
         <v>-331600000</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
@@ -12899,7 +12882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
@@ -12958,7 +12941,7 @@
         <v>-331600000</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
@@ -13017,7 +13000,7 @@
         <v>51000000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>155</v>
       </c>
@@ -13076,7 +13059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -13135,7 +13118,7 @@
         <v>-280600000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -13194,7 +13177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -13253,7 +13236,7 @@
         <v>-93200000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>54</v>
       </c>
@@ -13312,7 +13295,7 @@
         <v>229600000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>55</v>
       </c>
@@ -13371,7 +13354,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -13430,7 +13413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -13489,7 +13472,7 @@
         <v>187400000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="25" t="s">
         <v>186</v>
       </c>
@@ -15430,7 +15413,7 @@
       <c r="XET190" s="32"/>
       <c r="XEY190" s="2"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -15489,7 +15472,7 @@
         <v>187400000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>188</v>
       </c>
@@ -15548,7 +15531,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>189</v>
       </c>
@@ -15607,7 +15590,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>190</v>
       </c>
@@ -15666,12 +15649,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15685,7 +15665,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15693,48 +15673,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="e" vm="1">
+    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-    </row>
-    <row r="2" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+    </row>
+    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>16073770000</v>
+        <v>15499338623</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -15762,7 +15742,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>25729356796.365559</v>
+        <v>25673733224.465813</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15770,222 +15750,222 @@
       <c r="K3" s="44"/>
       <c r="L3" s="45"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="48"/>
+      <c r="O3" s="117"/>
       <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="47">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>1567900000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <f>Financials!O17*0.01</f>
         <v>0.37810000000000005</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <f>SUM(C13:E13)/3</f>
         <v>-1.1411035230272426E-2</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>A5*(1+(5*G3))</f>
         <v>81272949.397745892</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>22497037916.119827</v>
-      </c>
-      <c r="J4" s="52" t="s">
+        <v>22447918858.32283</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.3755999999999999E-2</v>
+        <v>-8.3829999999999998E-3</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="46"/>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="57"/>
+      <c r="O4" s="119"/>
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
+      <c r="A5" s="51" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>116993800</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="54">
         <f>Financials!O34*0.01</f>
         <v>0.3543</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <f>SUM(C15:E15)/3</f>
         <v>-4.8661138841977021E-3</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="51">
         <f>Financials!O56</f>
         <v>1585400000</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>24064937916.119827</v>
-      </c>
-      <c r="J5" s="52" t="s">
+        <v>24015818858.32283</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="59" cm="1">
+      <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>135.5</v>
-      </c>
-      <c r="L5" s="50" t="s">
+        <v>132.47999999999999</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="46"/>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="57">
         <f>Financials!O21</f>
         <v>-1800000</v>
       </c>
       <c r="P5" s="46"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>6.6475475599669149</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>6.4099828879239045</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <f>Financials!O190</f>
         <v>0.43307958582876421</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <f>Financials!O33/Financials!O126</f>
         <v>0.29719784885366546</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="53">
         <f>Financials!O96+Financials!O105</f>
         <v>17500000</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="60">
         <f>N25</f>
-        <v>7.1291479784222345E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+        <v>7.1391772851522331E-2</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>296.10021654741706</v>
-      </c>
-      <c r="L6" s="66" t="s">
+        <v>295.49584500484377</v>
+      </c>
+      <c r="L6" s="62" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="46"/>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="64">
         <f>Financials!O96</f>
         <v>17500000</v>
       </c>
       <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
+      <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>16.557241450350226</v>
-      </c>
-      <c r="B7" s="70" t="s">
+        <v>15.965532162134322</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>5.9821257116436426E-2</v>
-      </c>
-      <c r="D7" s="72" t="s">
+        <v>6.2035832387479742E-2</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="69">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.2364270895601111</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="70">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>6.1916218511180298E-3</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="72">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>1.1852414505344431</v>
-      </c>
-      <c r="L7" s="79" t="s">
+        <v>1.2304939991307653</v>
+      </c>
+      <c r="L7" s="75" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="46"/>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="64">
         <f>Financials!O105</f>
         <v>0</v>
       </c>
       <c r="P7" s="46"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -15998,409 +15978,409 @@
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="78">
         <f>O5/(O6+O7)</f>
         <v>-0.10285714285714286</v>
       </c>
       <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80">
         <v>2019</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="80">
         <v>2020</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="80">
         <v>2021</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="80">
         <v>2022</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="81">
         <v>2023</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="82">
         <v>2024</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="82">
         <v>2025</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="82">
         <v>2026</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="82">
         <v>2027</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="67" t="s">
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="64">
         <f>Financials!O25</f>
         <v>124100000</v>
       </c>
       <c r="P9" s="46"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="86">
         <v>1994800000</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="86">
         <v>2064900000</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="86">
         <v>2166800000</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="86">
         <v>2329900000</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="87">
         <v>2418000000</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="86">
         <v>2522000000</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="86">
         <v>2604000000</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="86">
         <v>2760000000</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="86">
         <v>2870000000</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="64">
         <f>Financials!O24</f>
         <v>964100000</v>
       </c>
       <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>3.5141367555644676E-2</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="90">
         <f t="shared" si="0"/>
         <v>4.934863673785661E-2</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="90">
         <f t="shared" si="0"/>
         <v>7.5272290935942454E-2</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="91">
         <f t="shared" si="0"/>
         <v>3.7812781664449124E-2</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="90">
         <f t="shared" si="0"/>
         <v>4.3010752688172005E-2</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="90">
         <f t="shared" si="0"/>
         <v>3.2513877874702724E-2</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="90">
         <f t="shared" si="0"/>
         <v>5.9907834101382562E-2</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="90">
         <f t="shared" si="0"/>
         <v>3.9855072463768071E-2</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="92">
         <f>SUM(F11:J11)/5</f>
         <v>4.2620063758494899E-2</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="67" t="s">
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="97">
+      <c r="O11" s="93">
         <f>O9/O10</f>
         <v>0.12872108702416762</v>
       </c>
       <c r="P11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="86">
         <v>825700000</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="86">
         <v>846600000</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="86">
         <v>815600000</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="86">
         <v>796900000</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="87">
         <v>970800000</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="86">
         <v>996000000</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="86">
         <v>1031000000</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="86">
         <v>1047000000</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="86">
         <v>1136000000</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="98" t="s">
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="99">
+      <c r="O12" s="95">
         <f>O8*(1-O11)</f>
         <v>-8.9617259620371328E-2</v>
       </c>
       <c r="P12" s="46"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94">
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>2.5311856606515581E-2</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="90">
         <f t="shared" si="1"/>
         <v>-3.6617056461138664E-2</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="90">
         <f t="shared" si="1"/>
         <v>-2.2927905836194196E-2</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="91">
         <f t="shared" si="1"/>
         <v>0.21822060484376959</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="90">
         <f t="shared" si="1"/>
         <v>2.5957972805933149E-2</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="90">
         <f t="shared" si="1"/>
         <v>3.5140562248995977E-2</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="90">
         <f t="shared" si="1"/>
         <v>1.5518913676042745E-2</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="90">
         <f t="shared" si="1"/>
         <v>8.5004775549188061E-2</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="92">
         <f>SUM(F13:J13)/5</f>
         <v>7.5968565824785908E-2</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="56" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="119"/>
       <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="86">
         <v>1078373306</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="86">
         <v>1130381459</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="86">
         <v>1163149115</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="86">
         <v>1056354788</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="87">
         <v>962600000</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="86">
         <v>979800000</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="86">
         <v>1008000000</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="86">
         <v>1142000000</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="86">
         <v>1162000000</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="67" t="s">
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="97">
+      <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9530000000000005E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94">
+      <c r="A15" s="96"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>4.8228338656595149E-2</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="90">
         <f t="shared" si="2"/>
         <v>2.8988140011592334E-2</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="90">
         <f t="shared" si="2"/>
         <v>-9.1814820320780588E-2</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="91">
         <f t="shared" si="2"/>
         <v>-8.8753124485293711E-2</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="90">
         <f t="shared" si="2"/>
         <v>1.7868273426137504E-2</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="90">
         <f t="shared" si="2"/>
         <v>2.8781383955909456E-2</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="90">
         <f t="shared" si="2"/>
         <v>0.13293650793650791</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="90">
         <f t="shared" si="2"/>
         <v>1.7513134851138368E-2</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="92">
         <f>SUM(F15:J15)/5</f>
         <v>2.1669235136879905E-2</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="67" t="s">
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="101" cm="1">
+      <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.64170000000000005</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="P15" s="46"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="98">
         <v>0.18531439139206457</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C16" s="98">
         <v>0.19564652934048815</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="98">
         <v>0.20896656534954408</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="98">
         <v>0.22641074659474961</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="67" t="s">
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="93">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="46"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="107" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="108">
+      <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.1466666000000012E-2</v>
+        <v>7.1573565000000006E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="56" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="57"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16409,24 +16389,24 @@
         <v>Software &amp; IT Services</v>
       </c>
       <c r="B19" s="109"/>
-      <c r="C19" s="110" cm="1">
+      <c r="C19" s="120" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1993</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="67" t="s">
+      <c r="D19" s="120"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="112">
+      <c r="O19" s="106">
         <f>O6+O7</f>
         <v>17500000</v>
       </c>
@@ -16441,20 +16421,20 @@
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
       <c r="E20" s="109"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="67" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="112" cm="1">
+      <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>16073770000</v>
+        <v>15499338623</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -16464,19 +16444,19 @@
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
       <c r="E21" s="109"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="67" t="s">
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="112">
+      <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>16091270000</v>
+        <v>15516838623</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -16486,20 +16466,20 @@
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
       <c r="E22" s="109"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="81" t="s">
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="113">
+      <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>1.087546228482898E-3</v>
+        <v>1.1278070504684142E-3</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -16509,20 +16489,20 @@
       <c r="C23" s="109"/>
       <c r="D23" s="109"/>
       <c r="E23" s="109"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="107" t="s">
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="114">
+      <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.99891245377151705</v>
+        <v>0.99887219294953156</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -16532,18 +16512,18 @@
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="115" t="s">
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="116"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="46"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16552,19 +16532,19 @@
       <c r="C25" s="109"/>
       <c r="D25" s="109"/>
       <c r="E25" s="109"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="117">
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.1291479784222345E-2</v>
-      </c>
-      <c r="O25" s="118"/>
+        <v>7.1391772851522331E-2</v>
+      </c>
+      <c r="O25" s="113"/>
       <c r="P25" s="46"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16573,87 +16553,87 @@
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
       <c r="E26" s="109"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
       <c r="O28" s="46"/>
       <c r="P28" s="46"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
     </row>
@@ -16694,526 +16674,526 @@
       <c r="P32" s="46"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Technology/Software/Check Point Software.xlsx
+++ b/Technology/Software/Check Point Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082DF2E0-B8ED-3440-BD69-C249C043F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289EE41D-F39C-894E-B399-646CFA792327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,13 +1563,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
       <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1586,7 +1583,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9530000000000005E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1598,9 +1595,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15665,7 +15659,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15742,7 +15736,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>25673733224.465813</v>
+        <v>25890774846.510563</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15787,7 +15781,7 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>22447918858.32283</v>
+        <v>22639581046.252789</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>211</v>
@@ -15837,7 +15831,7 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>24015818858.32283</v>
+        <v>24207481046.252789</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>218</v>
@@ -15890,14 +15884,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>7.1391772851522331E-2</v>
+        <v>7.1002871951919358E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>295.49584500484377</v>
+        <v>297.85409814257565</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>225</v>
@@ -15949,7 +15943,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>1.2304939991307653</v>
+        <v>1.2482948229361086</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>231</v>
@@ -16254,7 +16248,7 @@
       </c>
       <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9530000000000005E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -16359,7 +16353,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.1573565000000006E-2</v>
+        <v>7.1184225000000004E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -16542,7 +16536,7 @@
       <c r="M25" s="84"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.1391772851522331E-2</v>
+        <v>7.1002871951919358E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Check Point Software.xlsx
+++ b/Technology/Software/Check Point Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289EE41D-F39C-894E-B399-646CFA792327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9877EE14-8F6E-524A-91BA-62C587CE5FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1482,9 +1482,6 @@
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1493,9 +1490,6 @@
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,7 +1522,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1720,11 +1720,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>138.63999999999999</v>
+    <v>139.27000000000001</v>
     <v>117.18</v>
-    <v>0.63949999999999996</v>
-    <v>-1.1200000000000001</v>
-    <v>-8.3829999999999998E-3</v>
+    <v>0.63690000000000002</v>
+    <v>-0.3</v>
+    <v>-2.176E-3</v>
     <v>USD</v>
     <v>Check Point Software Technologies Ltd. (Check point) develops, markets and supports a range of products and services for information technology (IT) security. The Company's products and services are sold to enterprises, service providers, small and medium sized businesses and consumers. It offers enterprises a platform to deploy independent, modular and interoperable security applications (Software Blades), such as firewall, virtual private network (VPN), intrusion prevention system (IPS), Application Control, Anti-Bot, antivirus, data loss prevention (DLP), policy management, event analysis or multi-domain management. The Company offers Software Blades grouped into functional packages to address specific security issues. It has product offerings under these packages, which include Next Generation Firewall, Next Generation Threat Prevention, Next Generation Secure Web Gateway and Next Generation Data Protection.</v>
     <v>6026</v>
@@ -1732,24 +1732,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5 Shlomo Kaplan Street, TEL AVIV-YAFO, 67897 IL</v>
-    <v>134.01</v>
+    <v>138.86000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.933781666405</v>
+    <v>45238.878154628903</v>
     <v>0</v>
-    <v>132.46</v>
-    <v>15499338623</v>
+    <v>136.46</v>
+    <v>16093667128</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
-    <v>133.32</v>
-    <v>19.123799999999999</v>
-    <v>133.6</v>
-    <v>132.47999999999999</v>
+    <v>138.07</v>
+    <v>19.097100000000001</v>
+    <v>137.86000000000001</v>
+    <v>137.56</v>
     <v>116993800</v>
     <v>CHKP</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD. (XNAS:CHKP)</v>
-    <v>977940</v>
-    <v>862553</v>
+    <v>602339</v>
+    <v>999140</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1902,10 +1902,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -15659,7 +15659,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15667,48 +15667,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>15499338623</v>
+        <v>16093667128</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>25890774846.510563</v>
+        <v>25939063391.483269</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15744,10 +15744,10 @@
       <c r="K3" s="44"/>
       <c r="L3" s="45"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="117"/>
+      <c r="O3" s="115"/>
       <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15781,23 +15781,23 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>22639581046.252789</v>
+        <v>22682223405.42313</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-8.3829999999999998E-3</v>
+        <v>-2.176E-3</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="46"/>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="119"/>
+      <c r="O4" s="117"/>
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15831,14 +15831,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>24207481046.252789</v>
+        <v>24250123405.42313</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>132.47999999999999</v>
+        <v>137.56</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>219</v>
@@ -15856,7 +15856,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>6.4099828879239045</v>
+        <v>6.6557763143093469</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>221</v>
@@ -15884,14 +15884,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>7.1002871951919358E-2</v>
+        <v>7.0917232323471815E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>297.85409814257565</v>
+        <v>298.37877898025079</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>225</v>
@@ -15909,14 +15909,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>15.965532162134322</v>
+        <v>16.577737049855788</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>6.2035832387479742E-2</v>
+        <v>5.974737847061827E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>228</v>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>1.2482948229361086</v>
+        <v>1.169080975430727</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>231</v>
@@ -16201,10 +16201,10 @@
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
-      <c r="N13" s="118" t="s">
+      <c r="N13" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="119"/>
+      <c r="O13" s="117"/>
       <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.63949999999999996</v>
+        <v>0.63690000000000002</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.1184225000000004E-2</v>
+        <v>7.1091794999999999E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -16371,24 +16371,24 @@
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
       <c r="M18" s="84"/>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="116" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="119"/>
+      <c r="O18" s="117"/>
       <c r="P18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="str" cm="1">
+      <c r="A19" s="118" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="120" cm="1">
+      <c r="B19" s="118"/>
+      <c r="C19" s="119" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1993</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="105"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="84"/>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -16400,21 +16400,21 @@
       <c r="N19" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="106">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>17500000</v>
       </c>
       <c r="P19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="str" cm="1">
+      <c r="A20" s="118" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Check Point Software Technologies Ltd. (Check point) develops, markets and supports a range of products and services for information technology (IT) security. The Company's products and services are sold to enterprises, service providers, small and medium sized businesses and consumers. It offers enterprises a platform to deploy independent, modular and interoperable security applications (Software Blades), such as firewall, virtual private network (VPN), intrusion prevention system (IPS), Application Control, Anti-Bot, antivirus, data loss prevention (DLP), policy management, event analysis or multi-domain management. The Company offers Software Blades grouped into functional packages to address specific security issues. It has product offerings under these packages, which include Next Generation Firewall, Next Generation Threat Prevention, Next Generation Secure Web Gateway and Next Generation Data Protection.</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84"/>
       <c r="H20" s="84"/>
@@ -16426,18 +16426,18 @@
       <c r="N20" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="106" cm="1">
+      <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>15499338623</v>
+        <v>16093667128</v>
       </c>
       <c r="P20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
       <c r="H21" s="84"/>
@@ -16448,18 +16448,18 @@
       <c r="N21" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="106">
+      <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>15516838623</v>
+        <v>16111167128</v>
       </c>
       <c r="P21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
       <c r="H22" s="84"/>
@@ -16471,18 +16471,18 @@
       <c r="N22" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="107">
+      <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>1.1278070504684142E-3</v>
+        <v>1.0862031199208599E-3</v>
       </c>
       <c r="P22" s="46"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="84"/>
       <c r="G23" s="84"/>
       <c r="H23" s="84"/>
@@ -16494,18 +16494,18 @@
       <c r="N23" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="108">
+      <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.99887219294953156</v>
+        <v>0.99891379688007909</v>
       </c>
       <c r="P23" s="46"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
       <c r="H24" s="84"/>
@@ -16514,18 +16514,18 @@
       <c r="K24" s="84"/>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
-      <c r="N24" s="110" t="s">
+      <c r="N24" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="111"/>
+      <c r="O24" s="109"/>
       <c r="P24" s="46"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="84"/>
       <c r="G25" s="84"/>
       <c r="H25" s="84"/>
@@ -16534,19 +16534,19 @@
       <c r="K25" s="84"/>
       <c r="L25" s="84"/>
       <c r="M25" s="84"/>
-      <c r="N25" s="112">
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.1002871951919358E-2</v>
-      </c>
-      <c r="O25" s="113"/>
+        <v>7.0917232323471815E-2</v>
+      </c>
+      <c r="O25" s="111"/>
       <c r="P25" s="46"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
       <c r="H26" s="84"/>

--- a/Technology/Software/Check Point Software.xlsx
+++ b/Technology/Software/Check Point Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9877EE14-8F6E-524A-91BA-62C587CE5FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6922DC-479A-634D-BBD7-4EEDAF6BD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,8 +1183,241 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1287,128 +1490,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1416,106 +1500,250 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,9 +1754,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1563,10 +1788,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1583,7 +1809,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1595,6 +1821,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1720,11 +1947,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>139.27000000000001</v>
+    <v>147.5</v>
     <v>117.18</v>
-    <v>0.63690000000000002</v>
-    <v>-0.3</v>
-    <v>-2.176E-3</v>
+    <v>0.63680000000000003</v>
+    <v>-0.17</v>
+    <v>-1.1640000000000001E-3</v>
+    <v>-0.72</v>
+    <v>-4.9370000000000004E-3</v>
     <v>USD</v>
     <v>Check Point Software Technologies Ltd. (Check point) develops, markets and supports a range of products and services for information technology (IT) security. The Company's products and services are sold to enterprises, service providers, small and medium sized businesses and consumers. It offers enterprises a platform to deploy independent, modular and interoperable security applications (Software Blades), such as firewall, virtual private network (VPN), intrusion prevention system (IPS), Application Control, Anti-Bot, antivirus, data loss prevention (DLP), policy management, event analysis or multi-domain management. The Company offers Software Blades grouped into functional packages to address specific security issues. It has product offerings under these packages, which include Next Generation Firewall, Next Generation Threat Prevention, Next Generation Secure Web Gateway and Next Generation Data Protection.</v>
     <v>6026</v>
@@ -1732,24 +1961,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5 Shlomo Kaplan Street, TEL AVIV-YAFO, 67897 IL</v>
-    <v>138.86000000000001</v>
+    <v>146.29</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45238.878154628903</v>
+    <v>45261.888896758595</v>
     <v>0</v>
-    <v>136.46</v>
-    <v>16093667128</v>
+    <v>144.5</v>
+    <v>17061200000</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
-    <v>138.07</v>
-    <v>19.097100000000001</v>
-    <v>137.86000000000001</v>
-    <v>137.56</v>
+    <v>145.75</v>
+    <v>20.268899999999999</v>
+    <v>146</v>
+    <v>145.83000000000001</v>
+    <v>145.11000000000001</v>
     <v>116993800</v>
     <v>CHKP</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD. (XNAS:CHKP)</v>
-    <v>602339</v>
-    <v>999140</v>
+    <v>675889</v>
+    <v>883454</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1781,6 +2011,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1801,6 +2033,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1817,7 +2050,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1828,13 +2061,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1900,13 +2136,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1951,6 +2193,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1958,6 +2203,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2343,9 +2591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
+      <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12565,8 +12813,8 @@
       <c r="N172" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="4" t="s">
-        <v>24</v>
+      <c r="O172" s="4">
+        <v>0</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>24</v>
@@ -15649,7 +15897,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A37:S95 A9:S11 A13:S13 A97:S104 A96 A191:S195 A105 A106:S128 A130:S142 A144:S188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A37:S95 A9:S11 A13:S13 A97:S104 A96 A191:S195 A105 A106:S128 A130:S142 A144:S171 A173:S188 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15667,1531 +15915,1594 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="e" vm="1">
+    <row r="1" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-    </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+    </row>
+    <row r="2" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="A3" s="69" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>16093667128</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>17061200000</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="93">
         <f>Financials!O8*0.01</f>
         <v>0.87620000000000009</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="93">
         <f>SUM(C11:E11)/3</f>
         <v>5.3254098409814578E-2</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="72">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-6.1064518978363125E-2</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>25939063391.483269</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="97">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>24267347006.932667</v>
+      </c>
+      <c r="J3" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="114" t="s">
+      <c r="K3" s="74">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="46"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="76">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>1567900000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="94">
         <f>Financials!O17*0.01</f>
         <v>0.37810000000000005</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="94">
         <f>SUM(C13:E13)/3</f>
         <v>-1.1411035230272426E-2</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="79">
         <f>A5*(1+(5*G3))</f>
         <v>81272949.397745892</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="53">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>22682223405.42313</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="98">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>21688065981.655014</v>
+      </c>
+      <c r="J4" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="42" cm="1">
+      <c r="K4" s="99" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.176E-3</v>
-      </c>
-      <c r="L4" s="41" t="s">
+        <v>-1.1640000000000001E-3</v>
+      </c>
+      <c r="L4" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="116" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="46"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" cm="1">
+      <c r="A5" s="76" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>116993800</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="94">
         <f>Financials!O34*0.01</f>
         <v>0.3543</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="49">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="94">
+        <f>SUM(C16:E16)/3</f>
         <v>-4.8661138841977021E-3</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="79">
         <f>Financials!O56</f>
         <v>1585400000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="98">
         <f>I4+G5-G6</f>
-        <v>24250123405.42313</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <v>23255965981.655014</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="55" cm="1">
+      <c r="K5" s="101" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>137.56</v>
-      </c>
-      <c r="L5" s="48" t="s">
+        <v>145.83000000000001</v>
+      </c>
+      <c r="L5" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="56" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="105">
         <f>Financials!O21</f>
         <v>-1800000</v>
       </c>
-      <c r="P5" s="46"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="A6" s="82">
         <f>O20/F10</f>
-        <v>6.6557763143093469</v>
-      </c>
-      <c r="B6" s="48" t="s">
+        <v>7.0559139784946234</v>
+      </c>
+      <c r="B6" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="94">
         <f>Financials!O190</f>
         <v>0.43307958582876421</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="94">
         <f>Financials!O33/Financials!O126</f>
         <v>0.29719784885366546</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="79">
         <f>Financials!O96+Financials!O105</f>
         <v>17500000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="99">
         <f>N25</f>
-        <v>7.0917232323471815E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
+        <v>6.8840938387760398E-2</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="102">
         <f>I5/G4</f>
-        <v>298.37877898025079</v>
-      </c>
-      <c r="L6" s="62" t="s">
+        <v>286.14645037479124</v>
+      </c>
+      <c r="L6" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="63" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="105">
         <f>Financials!O96</f>
         <v>17500000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65">
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84">
         <f>O20/F12</f>
-        <v>16.577737049855788</v>
-      </c>
-      <c r="B7" s="66" t="s">
+        <v>17.574371652245571</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="67">
-        <f>F14/O21</f>
-        <v>5.974737847061827E-2</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="95">
+        <f>F15/O21</f>
+        <v>5.6362603711055288E-2</v>
+      </c>
+      <c r="D7" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="96">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.2364270895601111</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="86">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>6.1916218511180298E-3</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="72">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="73" t="s">
+      <c r="I7" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="103">
         <f>K6/K5-1</f>
-        <v>1.169080975430727</v>
-      </c>
-      <c r="L7" s="75" t="s">
+        <v>0.96219193838573136</v>
+      </c>
+      <c r="L7" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="105">
         <f>Financials!O105</f>
         <v>0</v>
       </c>
-      <c r="P7" s="46"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="77" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="107">
         <f>O5/(O6+O7)</f>
         <v>-0.10285714285714286</v>
       </c>
-      <c r="P8" s="46"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51">
         <v>2019</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="51">
         <v>2020</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="51">
         <v>2021</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="52">
         <v>2022</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="40">
         <v>2023</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="41">
         <v>2024</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="41">
         <v>2025</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="41">
         <v>2026</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="53">
         <v>2027</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="63" t="s">
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="105">
         <f>Financials!O25</f>
         <v>124100000</v>
       </c>
-      <c r="P9" s="46"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="56">
         <v>1994800000</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="56">
         <v>2064900000</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="56">
         <v>2166800000</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="57">
         <v>2329900000</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="56">
         <v>2418000000</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="56">
         <v>2522000000</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="56">
         <v>2604000000</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="56">
         <v>2760000000</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="57">
         <v>2870000000</v>
       </c>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="L10" s="54"/>
+      <c r="N10" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="105">
         <f>Financials!O24</f>
         <v>964100000</v>
       </c>
-      <c r="P10" s="46"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90">
+      <c r="A11" s="59"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>3.5141367555644676E-2</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="43">
         <f t="shared" si="0"/>
         <v>4.934863673785661E-2</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="43">
         <f t="shared" si="0"/>
         <v>7.5272290935942454E-2</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="44">
         <f t="shared" si="0"/>
         <v>3.7812781664449124E-2</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="43">
         <f t="shared" si="0"/>
         <v>4.3010752688172005E-2</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="43">
         <f t="shared" si="0"/>
         <v>3.2513877874702724E-2</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
         <v>5.9907834101382562E-2</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="60">
         <f t="shared" si="0"/>
         <v>3.9855072463768071E-2</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="60">
         <f>SUM(F11:J11)/5</f>
         <v>4.2620063758494899E-2</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="63" t="s">
+      <c r="L11" s="54"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="93">
+      <c r="O11" s="108">
         <f>O9/O10</f>
         <v>0.12872108702416762</v>
       </c>
-      <c r="P11" s="46"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="56">
         <v>825700000</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="56">
         <v>846600000</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="56">
         <v>815600000</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="56">
         <v>796900000</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="61">
         <v>970800000</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="56">
         <v>996000000</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="56">
         <v>1031000000</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="56">
         <v>1047000000</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="57">
         <v>1136000000</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="94" t="s">
+      <c r="L12" s="54"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="95">
+      <c r="O12" s="108">
         <f>O8*(1-O11)</f>
         <v>-8.9617259620371328E-2</v>
       </c>
-      <c r="P12" s="46"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90">
+      <c r="A13" s="59"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>2.5311856606515581E-2</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="43">
         <f t="shared" si="1"/>
         <v>-3.6617056461138664E-2</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="43">
         <f t="shared" si="1"/>
         <v>-2.2927905836194196E-2</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="44">
         <f t="shared" si="1"/>
         <v>0.21822060484376959</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="43">
         <f t="shared" si="1"/>
         <v>2.5957972805933149E-2</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="43">
         <f t="shared" si="1"/>
         <v>3.5140562248995977E-2</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="43">
         <f t="shared" si="1"/>
         <v>1.5518913676042745E-2</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="60">
         <f t="shared" si="1"/>
         <v>8.5004775549188061E-2</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K13" s="60">
         <f>SUM(F13:J13)/5</f>
         <v>7.5968565824785908E-2</v>
       </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="116" t="s">
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="123" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="46"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="47">
+        <f>B12/B10</f>
+        <v>0.41392620814116704</v>
+      </c>
+      <c r="C14" s="47">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.40999564143542061</v>
+      </c>
+      <c r="D14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.37640760568580395</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.3420318468603803</v>
+      </c>
+      <c r="F14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.40148883374689825</v>
+      </c>
+      <c r="G14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.39492466296590006</v>
+      </c>
+      <c r="H14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.39592933947772657</v>
+      </c>
+      <c r="I14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.3793478260869565</v>
+      </c>
+      <c r="J14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.39581881533101043</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="108">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B15" s="56">
         <v>1078373306</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C15" s="56">
         <v>1130381459</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D15" s="56">
         <v>1163149115</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E15" s="56">
         <v>1056354788</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F15" s="61">
         <v>962600000</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G15" s="56">
         <v>979800000</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H15" s="56">
         <v>1008000000</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I15" s="56">
         <v>1142000000</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J15" s="57">
         <v>1162000000</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K15" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="93">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="109" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="63"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>4.8228338656595149E-2</v>
       </c>
-      <c r="D15" s="90">
-        <f t="shared" si="2"/>
+      <c r="D16" s="43">
+        <f t="shared" si="3"/>
         <v>2.8988140011592334E-2</v>
       </c>
-      <c r="E15" s="90">
-        <f t="shared" si="2"/>
+      <c r="E16" s="43">
+        <f t="shared" si="3"/>
         <v>-9.1814820320780588E-2</v>
       </c>
-      <c r="F15" s="91">
-        <f t="shared" si="2"/>
+      <c r="F16" s="44">
+        <f t="shared" si="3"/>
         <v>-8.8753124485293711E-2</v>
       </c>
-      <c r="G15" s="90">
-        <f t="shared" si="2"/>
+      <c r="G16" s="43">
+        <f t="shared" si="3"/>
         <v>1.7868273426137504E-2</v>
       </c>
-      <c r="H15" s="90">
-        <f t="shared" si="2"/>
+      <c r="H16" s="43">
+        <f t="shared" si="3"/>
         <v>2.8781383955909456E-2</v>
       </c>
-      <c r="I15" s="90">
-        <f t="shared" si="2"/>
+      <c r="I16" s="43">
+        <f t="shared" si="3"/>
         <v>0.13293650793650791</v>
       </c>
-      <c r="J15" s="90">
-        <f t="shared" si="2"/>
+      <c r="J16" s="60">
+        <f t="shared" si="3"/>
         <v>1.7513134851138368E-2</v>
       </c>
-      <c r="K15" s="92">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="60">
+        <f>SUM(F16:J16)/5</f>
         <v>2.1669235136879905E-2</v>
       </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="63" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="97" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.63690000000000002</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="108">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="47">
+        <f>B15/B10</f>
+        <v>0.54059219270102266</v>
+      </c>
+      <c r="C17" s="47">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.54742673204513537</v>
+      </c>
+      <c r="D17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.53680501892191246</v>
+      </c>
+      <c r="E17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.45339061247263829</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.39809760132340777</v>
+      </c>
+      <c r="G17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.38850118953211737</v>
+      </c>
+      <c r="H17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.413768115942029</v>
+      </c>
+      <c r="J17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.40487804878048783</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="110" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="111">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>6.900347200000001E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B18" s="65">
         <v>0.18531439139206457</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C18" s="65">
         <v>0.19564652934048815</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D18" s="65">
         <v>0.20896656534954408</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E18" s="65">
         <v>0.22641074659474961</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="93">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="103" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="104">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.1091794999999999E-2</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="116" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="123" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="46"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="119" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1993</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="63" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="112">
         <f>O6+O7</f>
         <v>17500000</v>
       </c>
-      <c r="P19" s="46"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="112" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>17061200000</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="125" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="125"/>
+      <c r="C21" s="126" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1993</v>
+      </c>
+      <c r="D21" s="126"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="104" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="112">
+        <f>O19+O20</f>
+        <v>17078700000</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="125" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Check Point Software Technologies Ltd. (Check point) develops, markets and supports a range of products and services for information technology (IT) security. The Company's products and services are sold to enterprises, service providers, small and medium sized businesses and consumers. It offers enterprises a platform to deploy independent, modular and interoperable security applications (Software Blades), such as firewall, virtual private network (VPN), intrusion prevention system (IPS), Application Control, Anti-Bot, antivirus, data loss prevention (DLP), policy management, event analysis or multi-domain management. The Company offers Software Blades grouped into functional packages to address specific security issues. It has product offerings under these packages, which include Next Generation Firewall, Next Generation Threat Prevention, Next Generation Secure Web Gateway and Next Generation Data Protection.</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="105" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>16093667128</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="105">
-        <f>O19+O20</f>
-        <v>16111167128</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="77" t="s">
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="106">
+      <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>1.0862031199208599E-3</v>
-      </c>
-      <c r="P22" s="46"/>
+        <v>1.0246681538993016E-3</v>
+      </c>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="103" t="s">
+      <c r="A23" s="125"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="107">
+      <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.99891379688007909</v>
-      </c>
-      <c r="P23" s="46"/>
+        <v>0.99897533184610066</v>
+      </c>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="108" t="s">
+      <c r="A24" s="125"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="46"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="110">
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.0917232323471815E-2</v>
-      </c>
-      <c r="O25" s="111"/>
-      <c r="P25" s="46"/>
+        <v>6.8840938387760398E-2</v>
+      </c>
+      <c r="O25" s="118"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="118"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="84"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="84"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="84"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="84"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="84"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="84"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E26"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17199,8 +17510,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:CHKP/explorer/revenue_proj" xr:uid="{4728B256-EA5A-B14D-A012-53BC29F4A282}"/>

--- a/Technology/Software/Check Point Software.xlsx
+++ b/Technology/Software/Check Point Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6922DC-479A-634D-BBD7-4EEDAF6BD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151117A0-12C0-504F-BF9B-C473ADBB6145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1790,6 +1790,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1809,7 +1811,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1822,6 +1824,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1949,11 +1953,11 @@
     <v>Powered by Refinitiv</v>
     <v>147.5</v>
     <v>117.18</v>
-    <v>0.63680000000000003</v>
-    <v>-0.17</v>
-    <v>-1.1640000000000001E-3</v>
-    <v>-0.72</v>
-    <v>-4.9370000000000004E-3</v>
+    <v>0.63739999999999997</v>
+    <v>1.17</v>
+    <v>8.0940000000000005E-3</v>
+    <v>-0.36</v>
+    <v>-2.47E-3</v>
     <v>USD</v>
     <v>Check Point Software Technologies Ltd. (Check point) develops, markets and supports a range of products and services for information technology (IT) security. The Company's products and services are sold to enterprises, service providers, small and medium sized businesses and consumers. It offers enterprises a platform to deploy independent, modular and interoperable security applications (Software Blades), such as firewall, virtual private network (VPN), intrusion prevention system (IPS), Application Control, Anti-Bot, antivirus, data loss prevention (DLP), policy management, event analysis or multi-domain management. The Company offers Software Blades grouped into functional packages to address specific security issues. It has product offerings under these packages, which include Next Generation Firewall, Next Generation Threat Prevention, Next Generation Secure Web Gateway and Next Generation Data Protection.</v>
     <v>6026</v>
@@ -1961,25 +1965,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5 Shlomo Kaplan Street, TEL AVIV-YAFO, 67897 IL</v>
-    <v>146.29</v>
+    <v>145.9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.888896758595</v>
+    <v>45268.917789027342</v>
     <v>0</v>
-    <v>144.5</v>
-    <v>17061200000</v>
+    <v>143.82</v>
+    <v>17048336536</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD.</v>
-    <v>145.75</v>
-    <v>20.268899999999999</v>
-    <v>146</v>
-    <v>145.83000000000001</v>
-    <v>145.11000000000001</v>
+    <v>143.82</v>
+    <v>20.067599999999999</v>
+    <v>144.55000000000001</v>
+    <v>145.72</v>
+    <v>145.36000000000001</v>
     <v>116993800</v>
     <v>CHKP</v>
     <v>CHECK POINT SOFTWARE TECHNOLOGIES LTD. (XNAS:CHKP)</v>
-    <v>675889</v>
-    <v>883454</v>
+    <v>865448</v>
+    <v>709719</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -15907,7 +15911,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15956,7 +15960,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>17061200000</v>
+        <v>17048336536</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>201</v>
@@ -15984,7 +15988,7 @@
       </c>
       <c r="I3" s="97">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>24267347006.932667</v>
+        <v>24527845487.912491</v>
       </c>
       <c r="J3" s="73" t="s">
         <v>205</v>
@@ -16034,14 +16038,14 @@
       </c>
       <c r="I4" s="98">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>21688065981.655014</v>
+        <v>21923733372.002197</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="99" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.1640000000000001E-3</v>
+        <v>8.0940000000000005E-3</v>
       </c>
       <c r="L4" s="80" t="s">
         <v>212</v>
@@ -16084,14 +16088,14 @@
       </c>
       <c r="I5" s="98">
         <f>I4+G5-G6</f>
-        <v>23255965981.655014</v>
+        <v>23491633372.002197</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="101" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>145.83000000000001</v>
+        <v>145.72</v>
       </c>
       <c r="L5" s="89" t="s">
         <v>219</v>
@@ -16109,7 +16113,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="82">
         <f>O20/F10</f>
-        <v>7.0559139784946234</v>
+        <v>7.0505941009098425</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>221</v>
@@ -16137,14 +16141,14 @@
       </c>
       <c r="I6" s="99">
         <f>N25</f>
-        <v>6.8840938387760398E-2</v>
+        <v>6.8322222210022293E-2</v>
       </c>
       <c r="J6" s="78" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="102">
         <f>I5/G4</f>
-        <v>286.14645037479124</v>
+        <v>289.04615306915071</v>
       </c>
       <c r="L6" s="83" t="s">
         <v>225</v>
@@ -16162,14 +16166,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84">
         <f>O20/F12</f>
-        <v>17.574371652245571</v>
+        <v>17.561121277297076</v>
       </c>
       <c r="B7" s="85" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="95">
         <f>F15/O21</f>
-        <v>5.6362603711055288E-2</v>
+        <v>5.6405087319887123E-2</v>
       </c>
       <c r="D7" s="85" t="s">
         <v>228</v>
@@ -16196,7 +16200,7 @@
       </c>
       <c r="K7" s="103">
         <f>K6/K5-1</f>
-        <v>0.96219193838573136</v>
+        <v>0.98357228293405652</v>
       </c>
       <c r="L7" s="88" t="s">
         <v>231</v>
@@ -16509,7 +16513,7 @@
       </c>
       <c r="O14" s="108">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -16554,7 +16558,7 @@
       </c>
       <c r="O15" s="109" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.63680000000000003</v>
+        <v>0.63739999999999997</v>
       </c>
       <c r="P15" s="38"/>
     </row>
@@ -16655,7 +16659,7 @@
       </c>
       <c r="O17" s="111">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.900347200000001E-2</v>
+        <v>6.8484346000000001E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
@@ -16731,7 +16735,7 @@
       </c>
       <c r="O20" s="112" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>17061200000</v>
+        <v>17048336536</v>
       </c>
       <c r="P20" s="38"/>
     </row>
@@ -16759,7 +16763,7 @@
       </c>
       <c r="O21" s="112">
         <f>O19+O20</f>
-        <v>17078700000</v>
+        <v>17065836536</v>
       </c>
       <c r="P21" s="38"/>
     </row>
@@ -16785,7 +16789,7 @@
       </c>
       <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>1.0246681538993016E-3</v>
+        <v>1.0254405029067365E-3</v>
       </c>
       <c r="P22" s="38"/>
     </row>
@@ -16808,7 +16812,7 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.99897533184610066</v>
+        <v>0.99897455949709324</v>
       </c>
       <c r="P23" s="38"/>
     </row>
@@ -16848,7 +16852,7 @@
       <c r="M25" s="42"/>
       <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.8840938387760398E-2</v>
+        <v>6.8322222210022293E-2</v>
       </c>
       <c r="O25" s="118"/>
       <c r="P25" s="38"/>
